--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="1006">
   <si>
     <t>anchor score</t>
   </si>
@@ -325,598 +325,598 @@
     <t>anxiety</t>
   </si>
   <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>trader</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>stocked</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>keeping</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>trader</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>commission</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>stocked</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>keeping</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>amazing</t>
   </si>
   <si>
     <t>gift</t>
@@ -3397,10 +3397,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3529,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K4">
         <v>0.8813559322033898</v>
@@ -3729,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K8">
         <v>0.84251968503937</v>
@@ -3829,7 +3829,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K10">
         <v>0.7692307692307693</v>
@@ -3879,7 +3879,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K11">
         <v>0.7531645569620253</v>
@@ -3929,7 +3929,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K12">
         <v>0.746031746031746</v>
@@ -3979,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K13">
         <v>0.723404255319149</v>
@@ -4029,7 +4029,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K14">
         <v>0.7222222222222222</v>
@@ -4079,7 +4079,7 @@
         <v>152</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K15">
         <v>0.7192982456140351</v>
@@ -4179,28 +4179,28 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>0.670995670995671</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4229,28 +4229,28 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O18">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4279,28 +4279,28 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="K19">
-        <v>0.6521739130434783</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4329,7 +4329,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K20">
         <v>0.6408450704225352</v>
@@ -4379,7 +4379,7 @@
         <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K21">
         <v>0.6111111111111112</v>
@@ -4529,7 +4529,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K24">
         <v>0.5555555555555556</v>
@@ -4579,28 +4579,28 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="K25">
-        <v>0.5426829268292683</v>
+        <v>0.53125</v>
       </c>
       <c r="L25">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4629,28 +4629,28 @@
         <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="K26">
-        <v>0.53125</v>
+        <v>0.5235294117647059</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4729,7 +4729,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K28">
         <v>0.4857142857142857</v>
@@ -4879,7 +4879,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K31">
         <v>0.4742268041237113</v>
@@ -4929,7 +4929,7 @@
         <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K32">
         <v>0.4698162729658792</v>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K33">
         <v>0.4659090909090909</v>
@@ -5179,7 +5179,7 @@
         <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K37">
         <v>0.4411764705882353</v>
@@ -5529,7 +5529,7 @@
         <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K44">
         <v>0.3333333333333333</v>
@@ -5579,7 +5579,7 @@
         <v>25</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K45">
         <v>0.3333333333333333</v>
@@ -5679,7 +5679,7 @@
         <v>21</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K47">
         <v>0.3333333333333333</v>
@@ -6279,7 +6279,7 @@
         <v>5</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K59">
         <v>0.2962962962962963</v>
@@ -6329,7 +6329,7 @@
         <v>5</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K60">
         <v>0.2947368421052631</v>
@@ -6529,7 +6529,7 @@
         <v>29</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K64">
         <v>0.2857142857142857</v>
@@ -6929,7 +6929,7 @@
         <v>33</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K72">
         <v>0.2758620689655172</v>
@@ -7079,7 +7079,7 @@
         <v>7</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K75">
         <v>0.2727272727272727</v>
@@ -7629,7 +7629,7 @@
         <v>8</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K86">
         <v>0.2535211267605634</v>
@@ -8179,7 +8179,7 @@
         <v>28</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K97">
         <v>0.2484076433121019</v>
@@ -8211,25 +8211,25 @@
         <v>0.09523809523809523</v>
       </c>
       <c r="C98">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="E98">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
       <c r="F98">
-        <v>0.05000000000000004</v>
+        <v>0.29</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K98">
         <v>0.2445520581113801</v>
@@ -8258,25 +8258,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>356</v>
@@ -8329,7 +8329,7 @@
         <v>10</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K100">
         <v>0.2383177570093458</v>
@@ -8364,16 +8364,16 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>10</v>
@@ -8414,16 +8414,16 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>10</v>
@@ -8464,22 +8464,22 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>10</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K103">
         <v>0.2333333333333333</v>
@@ -8508,25 +8508,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E104">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F104">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>359</v>
@@ -8564,16 +8564,16 @@
         <v>2</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>21</v>
@@ -8614,16 +8614,16 @@
         <v>2</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>21</v>
@@ -8658,25 +8658,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>362</v>
@@ -8858,13 +8858,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>366</v>
@@ -8908,25 +8908,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.08108108108108109</v>
+        <v>0.08</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>367</v>
@@ -8958,25 +8958,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.08</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>368</v>
@@ -9008,7 +9008,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>369</v>
@@ -9061,10 +9061,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>370</v>
@@ -9214,16 +9214,16 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>12</v>
@@ -9261,25 +9261,25 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K119">
         <v>0.2215189873417721</v>
@@ -9311,10 +9311,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>373</v>
@@ -9364,16 +9364,16 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>12</v>
@@ -9408,25 +9408,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.07692307692307693</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D122">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E122">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>375</v>
@@ -9458,25 +9458,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C123">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>376</v>
@@ -9508,25 +9508,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.07272727272727272</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>377</v>
@@ -9561,10 +9561,10 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>378</v>
@@ -9608,25 +9608,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>379</v>
@@ -9658,25 +9658,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>380</v>
@@ -9764,13 +9764,13 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E129">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F129">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
@@ -9829,7 +9829,7 @@
         <v>14</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K130">
         <v>0.2083333333333333</v>
@@ -9858,25 +9858,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E131">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F131">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>383</v>
@@ -9908,13 +9908,13 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>384</v>
@@ -9958,25 +9958,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>385</v>
@@ -10011,10 +10011,10 @@
         <v>0.0625</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -10026,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>386</v>
@@ -10108,13 +10108,13 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>388</v>
@@ -10158,7 +10158,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>49</v>
@@ -10211,22 +10211,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>389</v>
@@ -10314,13 +10314,13 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F140">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
@@ -10361,10 +10361,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -10376,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>392</v>
@@ -10408,25 +10408,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>393</v>
@@ -10458,13 +10458,13 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>394</v>
@@ -10514,22 +10514,22 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
         <v>17</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K144">
         <v>0.1904761904761905</v>
@@ -10608,25 +10608,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>396</v>
@@ -10658,7 +10658,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>397</v>
@@ -10764,16 +10764,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>18</v>
@@ -10808,13 +10808,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>400</v>
@@ -10858,25 +10858,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>401</v>
@@ -10914,16 +10914,16 @@
         <v>2</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>38</v>
@@ -10964,16 +10964,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>19</v>
@@ -11011,22 +11011,22 @@
         <v>0.05</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E154">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F154">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>404</v>
@@ -11064,13 +11064,13 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F155">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
@@ -11108,25 +11108,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="E156">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F156">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>406</v>
@@ -11158,25 +11158,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="E157">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F157">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>407</v>
@@ -11208,25 +11208,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.04878048780487805</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F158">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>408</v>
@@ -11258,25 +11258,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>409</v>
@@ -11308,25 +11308,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F160">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>410</v>
@@ -11364,16 +11364,16 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
         <v>22</v>
@@ -11414,16 +11414,16 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>22</v>
@@ -11458,25 +11458,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E163">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F163">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>413</v>
@@ -11508,25 +11508,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>414</v>
@@ -11558,25 +11558,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04166666666666666</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D165">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E165">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>415</v>
@@ -11608,28 +11608,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F166">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K166">
         <v>0.1739130434782609</v>
@@ -11658,25 +11658,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04026845637583892</v>
+        <v>0.04</v>
       </c>
       <c r="C167">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>416</v>
@@ -11714,13 +11714,13 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E168">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F168">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
@@ -11764,22 +11764,22 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>24</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K169">
         <v>0.1707317073170732</v>
@@ -11808,28 +11808,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K170">
         <v>0.1692307692307692</v>
@@ -11858,25 +11858,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>418</v>
@@ -11908,25 +11908,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.03896103896103896</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>419</v>
@@ -11958,25 +11958,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>420</v>
@@ -12008,25 +12008,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E174">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F174">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>421</v>
@@ -12064,16 +12064,16 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>26</v>
@@ -12108,25 +12108,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03703703703703703</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E176">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F176">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>423</v>
@@ -12158,7 +12158,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -12176,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>424</v>
@@ -12208,25 +12208,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>425</v>
@@ -12264,16 +12264,16 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>27</v>
@@ -12314,16 +12314,16 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
         <v>27</v>
@@ -12358,25 +12358,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03571428571428571</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>428</v>
@@ -12408,25 +12408,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>429</v>
@@ -12458,25 +12458,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03529411764705882</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>430</v>
@@ -12514,16 +12514,16 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
         <v>28</v>
@@ -12558,25 +12558,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>432</v>
@@ -12608,25 +12608,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03448275862068965</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D186">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E186">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="F186">
-        <v>0.06999999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>433</v>
@@ -12658,25 +12658,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>434</v>
@@ -12708,25 +12708,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03157894736842105</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E188">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F188">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>435</v>
@@ -12761,22 +12761,22 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>436</v>
@@ -12814,13 +12814,13 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F190">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
@@ -12858,25 +12858,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0303030303030303</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E191">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="F191">
-        <v>0.23</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>438</v>
@@ -12908,25 +12908,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0303030303030303</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E192">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F192">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>439</v>
@@ -12958,25 +12958,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02898550724637681</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E193">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F193">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>440</v>
@@ -13008,25 +13008,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02898550724637681</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>441</v>
@@ -13058,25 +13058,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E195">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F195">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>442</v>
@@ -13108,7 +13108,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -13126,7 +13126,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>443</v>
@@ -13158,25 +13158,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E197">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F197">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>444</v>
@@ -13208,25 +13208,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02702702702702703</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>445</v>
@@ -13258,25 +13258,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
         <v>2</v>
       </c>
       <c r="E199">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>446</v>
@@ -13308,25 +13308,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02547770700636943</v>
+        <v>0.025</v>
       </c>
       <c r="C200">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="E200">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F200">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>447</v>
@@ -13358,13 +13358,13 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -13376,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>448</v>
@@ -13408,25 +13408,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.025</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E202">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>449</v>
@@ -13458,25 +13458,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>450</v>
@@ -13508,25 +13508,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02409638554216868</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C204">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>451</v>
@@ -13561,22 +13561,22 @@
         <v>0.02380952380952381</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E205">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F205">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>452</v>
@@ -13608,25 +13608,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E206">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F206">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>453</v>
@@ -13658,7 +13658,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13676,7 +13676,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>454</v>
@@ -13708,28 +13708,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F208">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K208">
         <v>0.1607142857142857</v>
@@ -13758,25 +13758,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>455</v>
@@ -13814,13 +13814,13 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E210">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F210">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
@@ -13829,7 +13829,7 @@
         <v>43</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K210">
         <v>0.1594202898550725</v>
@@ -13864,13 +13864,13 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -13879,7 +13879,7 @@
         <v>43</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K211">
         <v>0.1578947368421053</v>
@@ -13908,25 +13908,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>456</v>
@@ -13958,25 +13958,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F213">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>457</v>
@@ -14008,25 +14008,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>458</v>
@@ -14058,28 +14058,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E215">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F215">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K215">
         <v>0.1559633027522936</v>
@@ -14114,13 +14114,13 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E216">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F216">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
@@ -14158,25 +14158,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02083333333333333</v>
+        <v>0.02006688963210702</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D217">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E217">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F217">
-        <v>0.02000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>47</v>
+        <v>293</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>7</v>
@@ -14208,25 +14208,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E218">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F218">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>460</v>
@@ -14258,25 +14258,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02006688963210702</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C219">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E219">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F219">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>293</v>
+        <v>53</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>461</v>
@@ -14308,28 +14308,28 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E220">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F220">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K220">
         <v>0.1538461538461539</v>
@@ -14358,25 +14358,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>462</v>
@@ -14408,25 +14408,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01801801801801802</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E222">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F222">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>463</v>
@@ -14458,25 +14458,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>464</v>
@@ -14508,25 +14508,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E224">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F224">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>465</v>
@@ -14558,25 +14558,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01754385964912281</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>466</v>
@@ -14608,25 +14608,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E226">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F226">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>467</v>
@@ -14658,25 +14658,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01694915254237288</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>468</v>
@@ -14708,25 +14708,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D228">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E228">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>469</v>
@@ -14758,28 +14758,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0160427807486631</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E229">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F229">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K229">
         <v>0.1481481481481481</v>
@@ -14811,22 +14811,22 @@
         <v>0.01587301587301587</v>
       </c>
       <c r="C230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>470</v>
@@ -14858,25 +14858,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01587301587301587</v>
+        <v>0.01577287066246057</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="E231">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F231">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>471</v>
@@ -14908,28 +14908,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01587301587301587</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K232">
         <v>0.1457725947521866</v>
@@ -14958,25 +14958,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01577287066246057</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="C233">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D233">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="E233">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F233">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>472</v>
@@ -15008,28 +15008,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01470588235294118</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K234">
         <v>0.1450381679389313</v>
@@ -15058,28 +15058,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01401869158878505</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E235">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F235">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K235">
         <v>0.1441441441441441</v>
@@ -15108,25 +15108,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01388888888888889</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E236">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F236">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>473</v>
@@ -15158,25 +15158,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01333333333333333</v>
+        <v>0.0125</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E237">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F237">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>474</v>
@@ -15208,25 +15208,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01298701298701299</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F238">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>475</v>
@@ -15258,28 +15258,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0125</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E239">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F239">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K239">
         <v>0.1428571428571428</v>
@@ -15308,25 +15308,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01234567901234568</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E240">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F240">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>476</v>
@@ -15358,25 +15358,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01219512195121951</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E241">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F241">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>477</v>
@@ -15408,25 +15408,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01176470588235294</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E242">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F242">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>478</v>
@@ -15458,25 +15458,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01149425287356322</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E243">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F243">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>479</v>
@@ -15508,25 +15508,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01111111111111111</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E244">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F244">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>480</v>
@@ -15558,25 +15558,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01098901098901099</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E245">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F245">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>481</v>
@@ -15608,25 +15608,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01075268817204301</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E246">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F246">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>482</v>
@@ -15658,25 +15658,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01041666666666667</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E247">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F247">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>483</v>
@@ -15708,25 +15708,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01030927835051546</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E248">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F248">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>484</v>
@@ -15758,25 +15758,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01030927835051546</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="E249">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F249">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>485</v>
@@ -15808,7 +15808,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01020408163265306</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15826,7 +15826,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>486</v>
@@ -15858,25 +15858,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.009803921568627451</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>487</v>
@@ -15908,25 +15908,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.009708737864077669</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E252">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F252">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>488</v>
@@ -15958,25 +15958,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.009259259259259259</v>
+        <v>0.008952080042127435</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>107</v>
+        <v>1882</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>489</v>
@@ -16008,25 +16008,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.009174311926605505</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E254">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F254">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>490</v>
@@ -16058,25 +16058,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.008952080042127435</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C255">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="E255">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F255">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>1882</v>
+        <v>114</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>491</v>
@@ -16108,25 +16108,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.008771929824561403</v>
+        <v>0.008517887563884156</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D256">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E256">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F256">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>113</v>
+        <v>582</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>492</v>
@@ -16158,25 +16158,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.008695652173913044</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E257">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
       <c r="F257">
-        <v>0.05000000000000004</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>493</v>
@@ -16208,25 +16208,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.008517887563884156</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C258">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E258">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F258">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>582</v>
+        <v>123</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>494</v>
@@ -16258,25 +16258,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.008510638297872341</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E259">
-        <v>0.33</v>
+        <v>0.92</v>
       </c>
       <c r="F259">
-        <v>0.6699999999999999</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>495</v>
@@ -16308,25 +16308,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.008064516129032258</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E260">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F260">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>496</v>
@@ -16358,25 +16358,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.007936507936507936</v>
+        <v>0.007502679528403001</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D261">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E261">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F261">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>125</v>
+        <v>926</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>497</v>
@@ -16408,25 +16408,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.007518796992481203</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E262">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F262">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>498</v>
@@ -16458,25 +16458,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.007502679528403001</v>
+        <v>0.006968641114982578</v>
       </c>
       <c r="C263">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D263">
         <v>42</v>
       </c>
       <c r="E263">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F263">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>926</v>
+        <v>285</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>499</v>
@@ -16508,25 +16508,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.007142857142857143</v>
+        <v>0.006920415224913495</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264">
         <v>6</v>
       </c>
       <c r="E264">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F264">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>139</v>
+        <v>287</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>500</v>
@@ -16558,25 +16558,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.006968641114982578</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E265">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F265">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>501</v>
@@ -16608,25 +16608,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.006920415224913495</v>
+        <v>0.006337135614702154</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D266">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="E266">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F266">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>287</v>
+        <v>784</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>502</v>
@@ -16658,25 +16658,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.006493506493506494</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E267">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F267">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>503</v>
@@ -16708,13 +16708,13 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.006337135614702154</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="C268">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E268">
         <v>0.9399999999999999</v>
@@ -16726,10 +16726,10 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>784</v>
+        <v>167</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K268">
         <v>0.14</v>
@@ -16758,25 +16758,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.006097560975609756</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E269">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F269">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>504</v>
@@ -16808,28 +16808,28 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.005952380952380952</v>
+        <v>0.005639097744360902</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D270">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E270">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F270">
-        <v>0.06000000000000005</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>167</v>
+        <v>529</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K270">
         <v>0.1390134529147982</v>
@@ -16858,25 +16858,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.005714285714285714</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D271">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E271">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F271">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>348</v>
+        <v>1083</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>505</v>
@@ -16908,25 +16908,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.005639097744360902</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
         <v>3</v>
       </c>
-      <c r="D272">
-        <v>16</v>
-      </c>
       <c r="E272">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="F272">
-        <v>0.1899999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>529</v>
+        <v>188</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>506</v>
@@ -16958,25 +16958,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.005509641873278237</v>
+        <v>0.005096468875136513</v>
       </c>
       <c r="C273">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D273">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="E273">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F273">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>1083</v>
+        <v>2733</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>507</v>
@@ -17008,25 +17008,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.005291005291005291</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E274">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F274">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>508</v>
@@ -17058,28 +17058,28 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.005096468875136513</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
         <v>14</v>
       </c>
-      <c r="D275">
-        <v>374</v>
-      </c>
       <c r="E275">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F275">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>2733</v>
+        <v>213</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K275">
         <v>0.1347438752783964</v>
@@ -17108,25 +17108,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.004694835680751174</v>
+        <v>0.004</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E276">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F276">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>509</v>
@@ -17158,25 +17158,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.004672897196261682</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E277">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F277">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H277">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>510</v>
@@ -17208,25 +17208,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.004</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E278">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F278">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>249</v>
+        <v>514</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>511</v>
@@ -17258,25 +17258,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.003968253968253968</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F279">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H279">
-        <v>251</v>
+        <v>777</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>512</v>
@@ -17308,25 +17308,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.003875968992248062</v>
+        <v>0.003802281368821293</v>
       </c>
       <c r="C280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E280">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F280">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>514</v>
+        <v>262</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>513</v>
@@ -17358,25 +17358,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.003846153846153846</v>
+        <v>0.003546099290780142</v>
       </c>
       <c r="C281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="E281">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F281">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>777</v>
+        <v>281</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>514</v>
@@ -17408,25 +17408,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.003802281368821293</v>
+        <v>0.003368137420006736</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D282">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="E282">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F282">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>262</v>
+        <v>2959</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>515</v>
@@ -17458,25 +17458,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.003546099290780142</v>
+        <v>0.002915451895043732</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E283">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F283">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>516</v>
@@ -17508,25 +17508,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.003368137420006736</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C284">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="E284">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F284">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H284">
-        <v>2959</v>
+        <v>372</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>517</v>
@@ -17558,28 +17558,28 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.002915451895043732</v>
+        <v>0.002597402597402597</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="E285">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F285">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>342</v>
+        <v>768</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K285">
         <v>0.1320754716981132</v>
@@ -17604,30 +17604,6 @@
       </c>
     </row>
     <row r="286" spans="1:17">
-      <c r="A286" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B286">
-        <v>0.002680965147453083</v>
-      </c>
-      <c r="C286">
-        <v>1</v>
-      </c>
-      <c r="D286">
-        <v>1</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286" t="b">
-        <v>0</v>
-      </c>
-      <c r="H286">
-        <v>372</v>
-      </c>
       <c r="J286" s="1" t="s">
         <v>518</v>
       </c>
@@ -17654,30 +17630,6 @@
       </c>
     </row>
     <row r="287" spans="1:17">
-      <c r="A287" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B287">
-        <v>0.002597402597402597</v>
-      </c>
-      <c r="C287">
-        <v>2</v>
-      </c>
-      <c r="D287">
-        <v>126</v>
-      </c>
-      <c r="E287">
-        <v>0.98</v>
-      </c>
-      <c r="F287">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287">
-        <v>768</v>
-      </c>
       <c r="J287" s="1" t="s">
         <v>519</v>
       </c>
@@ -17705,7 +17657,7 @@
     </row>
     <row r="288" spans="1:17">
       <c r="J288" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K288">
         <v>0.1298701298701299</v>
@@ -17783,7 +17735,7 @@
     </row>
     <row r="291" spans="10:17">
       <c r="J291" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K291">
         <v>0.128</v>
@@ -17809,7 +17761,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K292">
         <v>0.1276595744680851</v>
@@ -18069,7 +18021,7 @@
     </row>
     <row r="302" spans="10:17">
       <c r="J302" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K302">
         <v>0.125</v>
@@ -18693,7 +18645,7 @@
     </row>
     <row r="326" spans="10:17">
       <c r="J326" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K326">
         <v>0.1230769230769231</v>
@@ -19031,7 +18983,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K339">
         <v>0.1171875</v>
@@ -19057,7 +19009,7 @@
     </row>
     <row r="340" spans="10:17">
       <c r="J340" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K340">
         <v>0.1163918525703201</v>
@@ -19135,7 +19087,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K343">
         <v>0.1147695202257761</v>
@@ -19291,7 +19243,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K349">
         <v>0.1111111111111111</v>
@@ -19681,7 +19633,7 @@
     </row>
     <row r="364" spans="10:17">
       <c r="J364" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K364">
         <v>0.1111111111111111</v>
@@ -19993,7 +19945,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K376">
         <v>0.1090909090909091</v>
@@ -20097,7 +20049,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K380">
         <v>0.1071428571428571</v>
@@ -20305,7 +20257,7 @@
     </row>
     <row r="388" spans="10:17">
       <c r="J388" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K388">
         <v>0.1041666666666667</v>
@@ -20357,7 +20309,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K390">
         <v>0.1025641025641026</v>
@@ -21111,7 +21063,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K419">
         <v>0.09829059829059829</v>
@@ -21137,7 +21089,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K420">
         <v>0.09767441860465116</v>
@@ -21293,7 +21245,7 @@
     </row>
     <row r="426" spans="10:17">
       <c r="J426" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K426">
         <v>0.09615384615384616</v>
@@ -21319,7 +21271,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K427">
         <v>0.0958904109589041</v>
@@ -21475,7 +21427,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K433">
         <v>0.09433962264150944</v>
@@ -21527,7 +21479,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K435">
         <v>0.09239130434782608</v>
@@ -22151,7 +22103,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K459">
         <v>0.09048723897911833</v>
@@ -22177,7 +22129,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K460">
         <v>0.09026548672566372</v>
@@ -22463,7 +22415,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K471">
         <v>0.08759124087591241</v>
@@ -22541,7 +22493,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K474">
         <v>0.08695652173913043</v>
@@ -22567,7 +22519,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K475">
         <v>0.08695652173913043</v>
@@ -22671,7 +22623,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K479">
         <v>0.0851063829787234</v>
@@ -22697,7 +22649,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K480">
         <v>0.0851063829787234</v>
@@ -22749,7 +22701,7 @@
     </row>
     <row r="482" spans="10:17">
       <c r="J482" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K482">
         <v>0.08469055374592833</v>
@@ -23529,7 +23481,7 @@
     </row>
     <row r="512" spans="10:17">
       <c r="J512" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K512">
         <v>0.07692307692307693</v>
@@ -23555,7 +23507,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K513">
         <v>0.07692307692307693</v>
@@ -23607,7 +23559,7 @@
     </row>
     <row r="515" spans="10:17">
       <c r="J515" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K515">
         <v>0.07692307692307693</v>
@@ -24205,7 +24157,7 @@
     </row>
     <row r="538" spans="10:17">
       <c r="J538" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K538">
         <v>0.07272727272727272</v>
@@ -24231,7 +24183,7 @@
     </row>
     <row r="539" spans="10:17">
       <c r="J539" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K539">
         <v>0.07270448135380758</v>
@@ -24387,7 +24339,7 @@
     </row>
     <row r="545" spans="10:17">
       <c r="J545" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K545">
         <v>0.07142857142857142</v>
@@ -24465,7 +24417,7 @@
     </row>
     <row r="548" spans="10:17">
       <c r="J548" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K548">
         <v>0.07142857142857142</v>
@@ -24751,7 +24703,7 @@
     </row>
     <row r="559" spans="10:17">
       <c r="J559" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K559">
         <v>0.06896551724137931</v>
@@ -25245,7 +25197,7 @@
     </row>
     <row r="578" spans="10:17">
       <c r="J578" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K578">
         <v>0.06666666666666667</v>
@@ -25661,7 +25613,7 @@
     </row>
     <row r="594" spans="10:17">
       <c r="J594" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K594">
         <v>0.06451612903225806</v>
@@ -25791,7 +25743,7 @@
     </row>
     <row r="599" spans="10:17">
       <c r="J599" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K599">
         <v>0.06428571428571428</v>
@@ -25817,7 +25769,7 @@
     </row>
     <row r="600" spans="10:17">
       <c r="J600" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K600">
         <v>0.06390977443609022</v>
@@ -26311,7 +26263,7 @@
     </row>
     <row r="619" spans="10:17">
       <c r="J619" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K619">
         <v>0.06233766233766234</v>
@@ -26337,7 +26289,7 @@
     </row>
     <row r="620" spans="10:17">
       <c r="J620" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K620">
         <v>0.06172839506172839</v>
@@ -26363,7 +26315,7 @@
     </row>
     <row r="621" spans="10:17">
       <c r="J621" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K621">
         <v>0.06122448979591837</v>
@@ -26883,7 +26835,7 @@
     </row>
     <row r="641" spans="10:17">
       <c r="J641" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K641">
         <v>0.05752212389380531</v>
@@ -26909,7 +26861,7 @@
     </row>
     <row r="642" spans="10:17">
       <c r="J642" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K642">
         <v>0.05747126436781609</v>
@@ -27377,7 +27329,7 @@
     </row>
     <row r="660" spans="10:17">
       <c r="J660" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K660">
         <v>0.05357142857142857</v>
@@ -27403,7 +27355,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K661">
         <v>0.05357142857142857</v>
@@ -27429,7 +27381,7 @@
     </row>
     <row r="662" spans="10:17">
       <c r="J662" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K662">
         <v>0.05333333333333334</v>
@@ -27455,7 +27407,7 @@
     </row>
     <row r="663" spans="10:17">
       <c r="J663" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K663">
         <v>0.05319148936170213</v>
@@ -27533,7 +27485,7 @@
     </row>
     <row r="666" spans="10:17">
       <c r="J666" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K666">
         <v>0.05263157894736842</v>
@@ -27871,7 +27823,7 @@
     </row>
     <row r="679" spans="10:17">
       <c r="J679" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K679">
         <v>0.05128205128205128</v>
@@ -28235,7 +28187,7 @@
     </row>
     <row r="693" spans="10:17">
       <c r="J693" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K693">
         <v>0.05</v>
@@ -28599,7 +28551,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K707">
         <v>0.04735376044568245</v>
@@ -28625,7 +28577,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K708">
         <v>0.04705882352941176</v>
@@ -28677,7 +28629,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K710">
         <v>0.04651162790697674</v>
@@ -28755,7 +28707,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K713">
         <v>0.04615384615384616</v>
@@ -28833,7 +28785,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K716">
         <v>0.04545454545454546</v>
@@ -28859,7 +28811,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K717">
         <v>0.04545454545454546</v>
@@ -29145,7 +29097,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K728">
         <v>0.04347826086956522</v>
@@ -29171,7 +29123,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K729">
         <v>0.04347826086956522</v>
@@ -29197,7 +29149,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K730">
         <v>0.04347826086956522</v>
@@ -29353,7 +29305,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K736">
         <v>0.04166666666666666</v>
@@ -29821,7 +29773,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K754">
         <v>0.03846153846153846</v>
@@ -30029,7 +29981,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K762">
         <v>0.03703703703703703</v>
@@ -30159,7 +30111,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K767">
         <v>0.03642039542143601</v>
@@ -30315,7 +30267,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K773">
         <v>0.03571428571428571</v>
@@ -30419,7 +30371,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K777">
         <v>0.03472222222222222</v>
@@ -30445,7 +30397,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K778">
         <v>0.03448275862068965</v>
@@ -30653,7 +30605,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K786">
         <v>0.0303030303030303</v>
@@ -30731,7 +30683,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K789">
         <v>0.0303030303030303</v>
@@ -30835,7 +30787,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K793">
         <v>0.0303030303030303</v>
@@ -30861,7 +30813,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K794">
         <v>0.03</v>
@@ -30965,7 +30917,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K798">
         <v>0.02857142857142857</v>
@@ -31251,7 +31203,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K809">
         <v>0.02631578947368421</v>
@@ -31485,7 +31437,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K818">
         <v>0.025</v>
@@ -31511,7 +31463,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K819">
         <v>0.02469135802469136</v>
@@ -31615,7 +31567,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K823">
         <v>0.02398523985239853</v>
@@ -31693,7 +31645,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K826">
         <v>0.02380952380952381</v>
@@ -31849,7 +31801,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K832">
         <v>0.02272727272727273</v>
@@ -32109,7 +32061,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K842">
         <v>0.01724137931034483</v>
@@ -32187,7 +32139,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K845">
         <v>0.01587301587301587</v>
@@ -32291,7 +32243,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K849">
         <v>0.01374570446735395</v>
@@ -32343,7 +32295,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K851">
         <v>0.01234567901234568</v>
@@ -32447,7 +32399,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K855">
         <v>0.01052631578947368</v>
@@ -32551,7 +32503,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K859">
         <v>0.004273504273504274</v>
